--- a/python/4.10.2021_data.xlsx
+++ b/python/4.10.2021_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$G$1</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Language</t>
   </si>
@@ -22,10 +25,13 @@
     <t>Vacancy</t>
   </si>
   <si>
+    <t>Floor Salary</t>
+  </si>
+  <si>
     <t>Average Salary</t>
   </si>
   <si>
-    <t>Floor Salary</t>
+    <t>Ceiling Salary</t>
   </si>
   <si>
     <t>Power</t>
@@ -130,8 +136,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,17 +196,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -238,7 +249,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -272,6 +283,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -306,9 +318,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -481,14 +494,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,648 +528,752 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C2">
-        <v>1177</v>
+        <v>2000</v>
       </c>
       <c r="D2">
-        <v>96862</v>
+        <v>184498</v>
       </c>
       <c r="E2">
-        <v>91438</v>
+        <v>223138</v>
       </c>
       <c r="F2">
-        <v>107.622526</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>261778</v>
+      </c>
+      <c r="G2">
+        <v>368.99599999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>2000</v>
       </c>
       <c r="D3">
-        <v>191684</v>
+        <v>155178</v>
       </c>
       <c r="E3">
-        <v>142644</v>
+        <v>191993</v>
       </c>
       <c r="F3">
-        <v>4.564608</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>228808</v>
+      </c>
+      <c r="G3">
+        <v>310.35599999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>1091</v>
+        <v>2000</v>
       </c>
       <c r="D4">
-        <v>127846</v>
+        <v>154867</v>
       </c>
       <c r="E4">
-        <v>104459</v>
+        <v>191467</v>
       </c>
       <c r="F4">
-        <v>113.964769</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>228067</v>
+      </c>
+      <c r="G4">
+        <v>309.73399999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C5">
-        <v>573</v>
+        <v>1671</v>
       </c>
       <c r="D5">
-        <v>190921</v>
+        <v>184810</v>
       </c>
       <c r="E5">
-        <v>155262</v>
+        <v>224503</v>
       </c>
       <c r="F5">
-        <v>88.965126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>264196</v>
+      </c>
+      <c r="G5">
+        <v>308.81751000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>2000</v>
+      </c>
+      <c r="D6">
+        <v>154266</v>
+      </c>
+      <c r="E6">
+        <v>186113</v>
+      </c>
+      <c r="F6">
+        <v>217960</v>
+      </c>
+      <c r="G6">
+        <v>308.53199999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>467</v>
-      </c>
-      <c r="D6">
-        <v>181582</v>
-      </c>
-      <c r="E6">
-        <v>154229</v>
-      </c>
-      <c r="F6">
-        <v>72.02494299999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="D7">
-        <v>275000</v>
+        <v>154193</v>
       </c>
       <c r="E7">
-        <v>230000</v>
+        <v>186969</v>
       </c>
       <c r="F7">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>219745</v>
+      </c>
+      <c r="G7">
+        <v>308.38600000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>2000</v>
       </c>
       <c r="D8">
-        <v>170753</v>
+        <v>154001</v>
       </c>
       <c r="E8">
-        <v>123086</v>
+        <v>189866</v>
       </c>
       <c r="F8">
-        <v>0.984688</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>225731</v>
+      </c>
+      <c r="G8">
+        <v>308.00200000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C9">
-        <v>59</v>
+        <v>1624</v>
       </c>
       <c r="D9">
-        <v>113439</v>
+        <v>173302</v>
       </c>
       <c r="E9">
-        <v>98747</v>
+        <v>211019</v>
       </c>
       <c r="F9">
-        <v>5.826073</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>248737</v>
+      </c>
+      <c r="G9">
+        <v>281.44244800000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>2000</v>
       </c>
       <c r="D10">
-        <v>258333</v>
+        <v>134686</v>
       </c>
       <c r="E10">
-        <v>168571</v>
+        <v>162250</v>
       </c>
       <c r="F10">
-        <v>1.179997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>189815</v>
+      </c>
+      <c r="G10">
+        <v>269.37200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>1243</v>
       </c>
       <c r="D11">
-        <v>228333</v>
+        <v>204835</v>
       </c>
       <c r="E11">
-        <v>193872</v>
+        <v>243613</v>
       </c>
       <c r="F11">
-        <v>0.96936</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>282392</v>
+      </c>
+      <c r="G11">
+        <v>254.609905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>406</v>
+        <v>1564</v>
       </c>
       <c r="D12">
-        <v>167582</v>
+        <v>143270</v>
       </c>
       <c r="E12">
-        <v>143260</v>
+        <v>181027</v>
       </c>
       <c r="F12">
-        <v>58.16356</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>218784</v>
+      </c>
+      <c r="G12">
+        <v>224.07427999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>2000</v>
+      </c>
+      <c r="D13">
+        <v>105268</v>
+      </c>
+      <c r="E13">
+        <v>131384</v>
+      </c>
+      <c r="F13">
+        <v>157501</v>
+      </c>
+      <c r="G13">
+        <v>210.536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>2000</v>
+      </c>
+      <c r="D14">
+        <v>91491</v>
+      </c>
+      <c r="E14">
+        <v>103172</v>
+      </c>
+      <c r="F14">
+        <v>114853</v>
+      </c>
+      <c r="G14">
+        <v>182.982</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>759</v>
+      </c>
+      <c r="D15">
+        <v>185171</v>
+      </c>
+      <c r="E15">
+        <v>231983</v>
+      </c>
+      <c r="F15">
+        <v>278796</v>
+      </c>
+      <c r="G15">
+        <v>140.54478900000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>437</v>
+      </c>
+      <c r="D16">
+        <v>228776</v>
+      </c>
+      <c r="E16">
+        <v>251140</v>
+      </c>
+      <c r="F16">
+        <v>273505</v>
+      </c>
+      <c r="G16">
+        <v>99.975111999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>395</v>
+      </c>
+      <c r="D17">
+        <v>195050</v>
+      </c>
+      <c r="E17">
+        <v>233204</v>
+      </c>
+      <c r="F17">
+        <v>271358</v>
+      </c>
+      <c r="G17">
+        <v>77.044749999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>22</v>
-      </c>
-      <c r="D13">
-        <v>260784</v>
-      </c>
-      <c r="E13">
-        <v>246550</v>
-      </c>
-      <c r="F13">
-        <v>5.4241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>328904</v>
-      </c>
-      <c r="E14">
-        <v>258022</v>
-      </c>
-      <c r="F14">
-        <v>2.322198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C18">
+        <v>260</v>
+      </c>
+      <c r="D18">
+        <v>246584</v>
+      </c>
+      <c r="E18">
+        <v>303853</v>
+      </c>
+      <c r="F18">
+        <v>361123</v>
+      </c>
+      <c r="G18">
+        <v>64.111840000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>257</v>
+      </c>
+      <c r="D19">
+        <v>213182</v>
+      </c>
+      <c r="E19">
+        <v>268154</v>
+      </c>
+      <c r="F19">
+        <v>323127</v>
+      </c>
+      <c r="G19">
+        <v>54.787773999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>261</v>
+      </c>
+      <c r="D20">
+        <v>132301</v>
+      </c>
+      <c r="E20">
+        <v>158318</v>
+      </c>
+      <c r="F20">
+        <v>184335</v>
+      </c>
+      <c r="G20">
+        <v>34.530560999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>18</v>
-      </c>
-      <c r="C15">
-        <v>439</v>
-      </c>
-      <c r="D15">
-        <v>212252</v>
-      </c>
-      <c r="E15">
-        <v>184092</v>
-      </c>
-      <c r="F15">
-        <v>80.816388</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16">
-        <v>844</v>
-      </c>
-      <c r="D16">
-        <v>187217</v>
-      </c>
-      <c r="E16">
-        <v>154211</v>
-      </c>
-      <c r="F16">
-        <v>130.154084</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>253</v>
-      </c>
-      <c r="D17">
-        <v>233966</v>
-      </c>
-      <c r="E17">
-        <v>204481</v>
-      </c>
-      <c r="F17">
-        <v>51.733693</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>100000</v>
-      </c>
-      <c r="E18">
-        <v>100000</v>
-      </c>
-      <c r="F18">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19">
-        <v>17</v>
-      </c>
-      <c r="D19">
-        <v>167857</v>
-      </c>
-      <c r="E19">
-        <v>128823</v>
-      </c>
-      <c r="F19">
-        <v>2.189991</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20">
-        <v>76</v>
-      </c>
-      <c r="D20">
-        <v>107424</v>
-      </c>
-      <c r="E20">
-        <v>106565</v>
-      </c>
-      <c r="F20">
-        <v>8.098940000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1">
-        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
       <c r="C21">
+        <v>239</v>
+      </c>
+      <c r="D21">
+        <v>106569</v>
+      </c>
+      <c r="E21">
+        <v>117142</v>
+      </c>
+      <c r="F21">
+        <v>127715</v>
+      </c>
+      <c r="G21">
+        <v>25.469991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>77</v>
+      </c>
+      <c r="D22">
+        <v>307845</v>
+      </c>
+      <c r="E22">
+        <v>360498</v>
+      </c>
+      <c r="F22">
+        <v>413152</v>
+      </c>
+      <c r="G22">
+        <v>23.704065</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>143</v>
+      </c>
+      <c r="D23">
+        <v>142649</v>
+      </c>
+      <c r="E23">
+        <v>174138</v>
+      </c>
+      <c r="F23">
+        <v>205627</v>
+      </c>
+      <c r="G23">
+        <v>20.398807000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>171</v>
+      </c>
+      <c r="D24">
+        <v>98747</v>
+      </c>
+      <c r="E24">
+        <v>115381</v>
+      </c>
+      <c r="F24">
+        <v>132016</v>
+      </c>
+      <c r="G24">
+        <v>16.885736999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>72</v>
+      </c>
+      <c r="D25">
+        <v>198286</v>
+      </c>
+      <c r="E25">
+        <v>266551</v>
+      </c>
+      <c r="F25">
+        <v>334816</v>
+      </c>
+      <c r="G25">
+        <v>14.276592000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>89</v>
+      </c>
+      <c r="D26">
+        <v>128823</v>
+      </c>
+      <c r="E26">
+        <v>166488</v>
+      </c>
+      <c r="F26">
+        <v>204154</v>
+      </c>
+      <c r="G26">
+        <v>11.465247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
         <v>53</v>
       </c>
-      <c r="D21">
-        <v>263826</v>
-      </c>
-      <c r="E21">
-        <v>213171</v>
-      </c>
-      <c r="F21">
-        <v>11.298063</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22">
+      <c r="D27">
+        <v>123089</v>
+      </c>
+      <c r="E27">
+        <v>204276</v>
+      </c>
+      <c r="F27">
+        <v>285464</v>
+      </c>
+      <c r="G27">
+        <v>6.5237170000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <v>58</v>
+      </c>
+      <c r="D28">
+        <v>107678</v>
+      </c>
+      <c r="E28">
+        <v>145505</v>
+      </c>
+      <c r="F28">
+        <v>183333</v>
+      </c>
+      <c r="G28">
+        <v>6.2453240000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>24</v>
+      </c>
+      <c r="D29">
+        <v>258056</v>
+      </c>
+      <c r="E29">
+        <v>332831</v>
+      </c>
+      <c r="F29">
+        <v>407607</v>
+      </c>
+      <c r="G29">
+        <v>6.1933439999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30">
+        <v>26</v>
+      </c>
+      <c r="D30">
+        <v>168571</v>
+      </c>
+      <c r="E30">
+        <v>236785</v>
+      </c>
+      <c r="F30">
+        <v>305000</v>
+      </c>
+      <c r="G30">
+        <v>4.3828459999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>193890</v>
+      </c>
+      <c r="E31">
+        <v>228611</v>
+      </c>
+      <c r="F31">
+        <v>263333</v>
+      </c>
+      <c r="G31">
+        <v>0.96945000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>16</v>
       </c>
-      <c r="D22">
-        <v>309988</v>
-      </c>
-      <c r="E22">
-        <v>198247</v>
-      </c>
-      <c r="F22">
-        <v>3.171952</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23">
-        <v>35</v>
-      </c>
-      <c r="D23">
-        <v>146231</v>
-      </c>
-      <c r="E23">
-        <v>132293</v>
-      </c>
-      <c r="F23">
-        <v>4.630255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1">
+      <c r="B32" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24">
-        <v>824</v>
-      </c>
-      <c r="D24">
-        <v>155400</v>
-      </c>
-      <c r="E24">
-        <v>134699</v>
-      </c>
-      <c r="F24">
-        <v>110.991976</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25">
-        <v>565</v>
-      </c>
-      <c r="D25">
-        <v>183299</v>
-      </c>
-      <c r="E25">
-        <v>154550</v>
-      </c>
-      <c r="F25">
-        <v>87.32075</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26">
-        <v>116</v>
-      </c>
-      <c r="D26">
-        <v>227874</v>
-      </c>
-      <c r="E26">
-        <v>195023</v>
-      </c>
-      <c r="F26">
-        <v>22.622668</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27">
-        <v>37</v>
-      </c>
-      <c r="D27">
-        <v>328900</v>
-      </c>
-      <c r="E27">
-        <v>307767</v>
-      </c>
-      <c r="F27">
-        <v>11.387379</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28">
-        <v>62</v>
-      </c>
-      <c r="D28">
-        <v>242552</v>
-      </c>
-      <c r="E28">
-        <v>228743</v>
-      </c>
-      <c r="F28">
-        <v>14.182066</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29">
-        <v>437</v>
-      </c>
-      <c r="D29">
-        <v>209450</v>
-      </c>
-      <c r="E29">
-        <v>173410</v>
-      </c>
-      <c r="F29">
-        <v>75.78017</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30">
-        <v>609</v>
-      </c>
-      <c r="D30">
-        <v>183126</v>
-      </c>
-      <c r="E30">
-        <v>153209</v>
-      </c>
-      <c r="F30">
-        <v>93.304281</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31">
-        <v>154</v>
-      </c>
-      <c r="D31">
-        <v>220638</v>
-      </c>
-      <c r="E31">
-        <v>185162</v>
-      </c>
-      <c r="F31">
-        <v>28.514948</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
       <c r="C32">
-        <v>441</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>223338</v>
+        <v>100000</v>
       </c>
       <c r="E32">
-        <v>185083</v>
+        <v>100000</v>
       </c>
       <c r="F32">
-        <v>81.62160299999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>100000</v>
+      </c>
+      <c r="G32">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C33">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>153055</v>
+        <v>230000</v>
       </c>
       <c r="E33">
-        <v>107678</v>
+        <v>275000</v>
       </c>
       <c r="F33">
-        <v>3.014984</v>
+        <v>320000</v>
+      </c>
+      <c r="G33">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1">
+    <sortState ref="A2:G33">
+      <sortCondition descending="1" ref="G1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/python/4.10.2021_data.xlsx
+++ b/python/4.10.2021_data.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
